--- a/medicine/Mort/Ancien_cimetière_de_Saint-Jean/Ancien_cimetière_de_Saint-Jean.xlsx
+++ b/medicine/Mort/Ancien_cimetière_de_Saint-Jean/Ancien_cimetière_de_Saint-Jean.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ancien_cimeti%C3%A8re_de_Saint-Jean</t>
+          <t>Ancien_cimetière_de_Saint-Jean</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ancien cimetière de Saint-Jean (en estonien : Vana-Jaani kalmistu) est un cimetière de Tartu en Estonie[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ancien cimetière de Saint-Jean (en estonien : Vana-Jaani kalmistu) est un cimetière de Tartu en Estonie.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ancien_cimeti%C3%A8re_de_Saint-Jean</t>
+          <t>Ancien_cimetière_de_Saint-Jean</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À la suite d'un oukase de l'impératrice russe Catherine II interdisant les enterrements dans les églises, l'ancien cimetière de Saint-Jean a été fondé en 1773 par l'église Saint-Jean et a officiellement ouvert ses portes le 5 novembre de la même année.
-Il a servi de lieu de sépulture pour les congrégations allemande et estonienne de Saint-Jean et l'église russe de Tartu[1].
-Cependant, son nom remonte à la fondation du nouveau cimetière de Saint-Jean dans la rue Puiestee tänav[2].
+Il a servi de lieu de sépulture pour les congrégations allemande et estonienne de Saint-Jean et l'église russe de Tartu.
+Cependant, son nom remonte à la fondation du nouveau cimetière de Saint-Jean dans la rue Puiestee tänav.
 Le cimetière abrite plusieurs bâtiments de valeur historique dans : le tombeau du maire Jacob Friedrich Teller, le tombeau de Rauch-Seidlitz et le tombeau Carl Klein.
-Le cimetière a été inscrit au registre national des monuments culturels le 23 mai 1997[1].
+Le cimetière a été inscrit au registre national des monuments culturels le 23 mai 1997.
 </t>
         </is>
       </c>
